--- a/biology/Médecine/Élisabeth_Quintenelle/Élisabeth_Quintenelle.xlsx
+++ b/biology/Médecine/Élisabeth_Quintenelle/Élisabeth_Quintenelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89lisabeth_Quintenelle</t>
+          <t>Élisabeth_Quintenelle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Élisabeth Rioux-Quintenelle, née le 30 mars 1922 à Grenoble, est une résistante française.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89lisabeth_Quintenelle</t>
+          <t>Élisabeth_Quintenelle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Élisabeth Rioux-Quintenelle est née à Grenoble au sein d’une famille protestante, son grand-père Fernand Watier et son frère Étienne Rioux étaient pasteurs. Elle est également la petite-nièce d’une des initiatrices du mouvement féministe en France, Louise Massebiau-Compain.
-Élisabeth Rioux est lycéenne à Grenoble lorsque la guerre est déclarée. En 1942, elle s’engage à l'école d’infirmières de la Croix-Rouge[1] à La Tronche près de Grenoble. Après l'obtention de son diplôme, elle exerce quelque temps à l'hôpital de La Tronche où elle fait évader un prisonnier destiné à la gestapo. Dénoncée, elle doit s'enfuir et devient, sous le pseudonyme de Marianne, infirmière du maquis de l'Oisans (Alpes françaises), jusqu'en 1944[2], puis, dès la Libération de l'Isère, en octobre 1944[3], Elisabeth Rioux s’engage dans le service de santé des chasseurs alpins. Elle exerce notamment près de Modane, en Maurienne. Elle devient infirmière chef au service de santé du Groupement Maurienne, à la caserne Loutraz à Modane[1]. Elle est également infirmière des troupes alpines d’occupation en Italie (Suse) et contribua aux Voix de la Liberté. Elle est décorée de la Croix de guerre en octobre 1945.
+Élisabeth Rioux est lycéenne à Grenoble lorsque la guerre est déclarée. En 1942, elle s’engage à l'école d’infirmières de la Croix-Rouge à La Tronche près de Grenoble. Après l'obtention de son diplôme, elle exerce quelque temps à l'hôpital de La Tronche où elle fait évader un prisonnier destiné à la gestapo. Dénoncée, elle doit s'enfuir et devient, sous le pseudonyme de Marianne, infirmière du maquis de l'Oisans (Alpes françaises), jusqu'en 1944, puis, dès la Libération de l'Isère, en octobre 1944, Elisabeth Rioux s’engage dans le service de santé des chasseurs alpins. Elle exerce notamment près de Modane, en Maurienne. Elle devient infirmière chef au service de santé du Groupement Maurienne, à la caserne Loutraz à Modane. Elle est également infirmière des troupes alpines d’occupation en Italie (Suse) et contribua aux Voix de la Liberté. Elle est décorée de la Croix de guerre en octobre 1945.
 Elle épouse Noël Henri Quintenelle, dit « Quintus » le 10 septembre 1949 à Grenoble.
 Elle est l’auteur du livre La guerre sans arme, préfacé par sa cousine, la sociologue et féministe Évelyne Sullerot, cofondatrice du mouvement français pour le planning familial et par le général Alain Le Ray.
-Élisabeth Rioux-Quintenelle est décorée de la Médaille de la Résistance[réf. nécessaire]. Elle a été nommée chevalier de la Légion d'honneur le 14 juillet 1986 puis officier de la Légion d'honneur le 6 avril 2012[4]. 
+Élisabeth Rioux-Quintenelle est décorée de la Médaille de la Résistance[réf. nécessaire]. Elle a été nommée chevalier de la Légion d'honneur le 14 juillet 1986 puis officier de la Légion d'honneur le 6 avril 2012. 
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89lisabeth_Quintenelle</t>
+          <t>Élisabeth_Quintenelle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Officier de la Légion d'honneur (6 avril 2012)[4] ; chevalier du 14 juillet 1986
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Officier de la Légion d'honneur (6 avril 2012) ; chevalier du 14 juillet 1986
  Croix de guerre 1939-1945 (octobre 1945)
  Médaille de la Résistance française[réf. nécessaire]</t>
         </is>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89lisabeth_Quintenelle</t>
+          <t>Élisabeth_Quintenelle</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'école publique de Corbelin (Isère) porte depuis le mois de juin 2023 le nom d'Elisabeth Rioux
 </t>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89lisabeth_Quintenelle</t>
+          <t>Élisabeth_Quintenelle</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,7 +627,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Élisabeth Rioux-Quintenelle, La guerre sans arme, éd. de Belledonne, 1996, 207 p. (ISBN 978-2-911148-16-3, présentation en ligne)</t>
         </is>
